--- a/biology/Zoologie/Bhutanitis_ludlowi/Bhutanitis_ludlowi.xlsx
+++ b/biology/Zoologie/Bhutanitis_ludlowi/Bhutanitis_ludlowi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bhutanitis ludlowi est une espèce de lépidoptères (papillons) de la famille des Papilionidae et de la sous-famille des Parnassiinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Bhutanitis ludlowi a été décrite par Alfred George Gabriel (d) en 1942[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bhutanitis ludlowi a été décrite par Alfred George Gabriel (d) en 1942.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bhutanitis ludlowi porte le nom commun de Ludlowi's Three-tailed Swallowtail en anglais.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bhutanitis ludlowi est un papillon spectaculaire, proche de Bhutanitis lidderdalii, de couleur marron, marqué de lignes blanches, aux ailes antérieures arrondies et aux ailes postérieures à queues, avec une marge jaune, de gros ocelles postdiscaux et une bande rouge[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bhutanitis ludlowi est un papillon spectaculaire, proche de Bhutanitis lidderdalii, de couleur marron, marqué de lignes blanches, aux ailes antérieures arrondies et aux ailes postérieures à queues, avec une marge jaune, de gros ocelles postdiscaux et une bande rouge.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa biologie est encore très peu connue.
 Les plantes hôtes larvaires sont des aristoloches (Aristolochia).
@@ -636,9 +656,11 @@
           <t>Distribution et biotopes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire du Bhoutan[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire du Bhoutan.
 Elle réside à haute altitude, au-dessus de 2 200 mètres.
 </t>
         </is>
@@ -668,7 +690,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les Bhutanitis, cette espèce est sur la liste de la convention sur le commerce international des espèces de faune et de flore sauvages menacées d'extinction (CITES).
 </t>
